--- a/data/gold/gold_sla_by_issue_type.xlsx
+++ b/data/gold/gold_sla_by_issue_type.xlsx
@@ -448,7 +448,7 @@
         <v>237</v>
       </c>
       <c r="C2" t="n">
-        <v>53.46835443037975</v>
+        <v>38.28401898690812</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +461,7 @@
         <v>290</v>
       </c>
       <c r="C3" t="n">
-        <v>52.13793103448276</v>
+        <v>36.04410440570977</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>277</v>
       </c>
       <c r="C4" t="n">
-        <v>55.01805054151625</v>
+        <v>39.54560870392399</v>
       </c>
     </row>
   </sheetData>
